--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanFacTmp.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L3-帳務作業/LoanFacTmp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L3-帳務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EBCF3A-A3C6-4B0F-A492-4C81077ED814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="4416"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -184,13 +185,18 @@
   </si>
   <si>
     <t>LoanFacTmp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在此檔有值的額度,其額度於銷帳檔紀錄的暫收款餘額限定該額度使用,
+否則,其額度於銷帳檔紀錄的暫收款餘額可供同戶號所有額度使用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -330,23 +336,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -358,9 +364,6 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -375,9 +378,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -400,7 +400,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -491,6 +491,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -526,6 +543,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -701,29 +735,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="38.5546875" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="2" t="s">
         <v>45</v>
       </c>
@@ -735,89 +769,89 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="10" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="19"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -871,7 +905,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -888,7 +922,9 @@
         <v>100</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -1483,7 +1519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1493,32 +1529,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="16" customWidth="1"/>
-    <col min="3" max="3" width="17" style="16" customWidth="1"/>
-    <col min="4" max="4" width="4" style="19" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="19"/>
+    <col min="1" max="1" width="20.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="17" style="14" customWidth="1"/>
+    <col min="4" max="4" width="4" style="17" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>44</v>
       </c>
     </row>
